--- a/data/trans_dic/P21B_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P21B_R-Habitat-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>31,79; 85,2</t>
+          <t>27,97; 85,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>48,11; 83,48</t>
+          <t>50,83; 84,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>52,05; 89,02</t>
+          <t>50,83; 88,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>55,61; 91,65</t>
+          <t>56,83; 91,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>49,28; 87,9</t>
+          <t>49,16; 86,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>56,74; 89,62</t>
+          <t>56,33; 89,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,89; 80,35</t>
+          <t>36,34; 79,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>72,12; 94,6</t>
+          <t>72,63; 94,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>48,62; 79,81</t>
+          <t>47,89; 79,61</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>58,88; 81,84</t>
+          <t>58,82; 82,28</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>52,9; 79,92</t>
+          <t>50,53; 79,93</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>69,64; 90,87</t>
+          <t>72,22; 91,05</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>58,47; 76,68</t>
+          <t>58,83; 77,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>53,55; 72,06</t>
+          <t>53,08; 71,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>49,45; 72,11</t>
+          <t>51,45; 72,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>60,32; 79,58</t>
+          <t>59,17; 78,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>60,52; 76,16</t>
+          <t>60,34; 77,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>60,4; 75,38</t>
+          <t>61,36; 75,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>52,99; 71,13</t>
+          <t>52,98; 70,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>68,05; 80,48</t>
+          <t>67,13; 79,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>61,88; 74,58</t>
+          <t>62,35; 74,71</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>60,01; 72,2</t>
+          <t>60,28; 71,77</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>54,64; 69,02</t>
+          <t>55,06; 69,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>66,53; 77,44</t>
+          <t>66,65; 77,7</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>61,82; 75,57</t>
+          <t>60,63; 74,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>43,11; 57,08</t>
+          <t>43,58; 57,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52,79; 68,58</t>
+          <t>52,43; 68,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>59,49; 74,7</t>
+          <t>59,41; 75,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>54,33; 65,87</t>
+          <t>54,83; 66,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>51,53; 63,37</t>
+          <t>51,42; 63,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>55,62; 69,37</t>
+          <t>56,23; 69,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>63,63; 74,64</t>
+          <t>63,94; 74,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>58,65; 67,89</t>
+          <t>58,82; 68,02</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>49,69; 58,8</t>
+          <t>49,98; 58,96</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>56,37; 66,93</t>
+          <t>56,53; 66,77</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>64,28; 72,71</t>
+          <t>63,31; 72,56</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>68,33; 83,27</t>
+          <t>67,27; 83,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>57,4; 72,61</t>
+          <t>57,2; 72,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>56,42; 74,41</t>
+          <t>56,56; 75,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>66,43; 82,42</t>
+          <t>65,62; 82,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>65,13; 78,23</t>
+          <t>64,39; 77,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>62,12; 73,82</t>
+          <t>62,06; 74,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>47,82; 64,13</t>
+          <t>48,14; 64,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>65,01; 91,88</t>
+          <t>65,42; 91,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>67,62; 78,33</t>
+          <t>68,11; 78,43</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>61,9; 71,53</t>
+          <t>61,8; 71,67</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>54,14; 66,5</t>
+          <t>54,59; 66,77</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>68,48; 88,52</t>
+          <t>68,9; 88,74</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>64,03; 79,84</t>
+          <t>64,08; 79,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>68,18; 82,32</t>
+          <t>67,34; 82,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>68,69; 83,16</t>
+          <t>69,57; 83,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>69,1; 82,02</t>
+          <t>69,63; 81,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>71,25; 82,62</t>
+          <t>71,73; 82,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>64,13; 76,32</t>
+          <t>64,77; 76,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>68,58; 80,08</t>
+          <t>68,2; 79,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>69,72; 79,17</t>
+          <t>69,57; 79,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>71,12; 79,71</t>
+          <t>70,74; 79,57</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>67,42; 77,24</t>
+          <t>67,46; 77,24</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>70,25; 79,5</t>
+          <t>70,82; 79,28</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>71,61; 79,02</t>
+          <t>70,82; 78,69</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>66,95; 74,77</t>
+          <t>66,91; 74,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>58,54; 66,19</t>
+          <t>58,54; 66,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>62,59; 71,02</t>
+          <t>62,95; 71,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>68,31; 75,96</t>
+          <t>68,47; 75,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>65,36; 71,86</t>
+          <t>65,79; 72,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>62,34; 68,81</t>
+          <t>62,71; 69,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>61,55; 68,86</t>
+          <t>61,56; 68,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>70,65; 81,73</t>
+          <t>70,74; 82,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>67,42; 72,21</t>
+          <t>67,05; 72,06</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>61,82; 66,63</t>
+          <t>62,02; 66,79</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>63,46; 68,91</t>
+          <t>63,4; 68,91</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>70,85; 79,72</t>
+          <t>71,09; 79,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P21B_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P21B_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,97; 85,2</t>
+          <t>30,73; 85,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>50,83; 84,6</t>
+          <t>50,57; 86,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>50,83; 88,96</t>
+          <t>52,61; 89,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>49,16; 86,14</t>
+          <t>49,07; 84,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>56,33; 89,31</t>
+          <t>52,99; 88,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>36,34; 79,14</t>
+          <t>37,87; 78,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>47,89; 79,61</t>
+          <t>48,2; 79,24</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>58,82; 82,28</t>
+          <t>59,59; 82,02</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>50,53; 79,93</t>
+          <t>50,94; 79,85</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>58,83; 77,11</t>
+          <t>57,13; 75,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>53,08; 71,64</t>
+          <t>53,71; 71,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>51,45; 72,14</t>
+          <t>50,81; 71,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>60,34; 77,24</t>
+          <t>60,87; 77,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>61,36; 75,83</t>
+          <t>61,03; 75,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>52,98; 70,96</t>
+          <t>52,46; 70,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>62,35; 74,71</t>
+          <t>62,04; 74,18</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>60,28; 71,77</t>
+          <t>60,18; 72,11</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>55,06; 69,46</t>
+          <t>54,82; 69,03</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>60,63; 74,79</t>
+          <t>61,98; 75,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>43,58; 57,31</t>
+          <t>43,76; 57,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52,43; 68,39</t>
+          <t>52,15; 68,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>54,83; 66,52</t>
+          <t>53,96; 65,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>51,42; 63,26</t>
+          <t>51,27; 62,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>56,23; 69,13</t>
+          <t>55,63; 69,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>58,82; 68,02</t>
+          <t>58,51; 67,95</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>49,98; 58,96</t>
+          <t>49,92; 58,68</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>56,53; 66,77</t>
+          <t>56,31; 66,84</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>67,27; 83,19</t>
+          <t>67,27; 83,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>57,2; 72,14</t>
+          <t>57,96; 72,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>56,56; 75,13</t>
+          <t>56,74; 74,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>64,39; 77,97</t>
+          <t>64,76; 78,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>62,06; 74,07</t>
+          <t>61,79; 73,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>48,14; 64,53</t>
+          <t>48,05; 64,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>68,11; 78,43</t>
+          <t>67,57; 77,93</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>61,8; 71,67</t>
+          <t>62,26; 71,78</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>54,59; 66,77</t>
+          <t>54,82; 67,3</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>64,08; 79,84</t>
+          <t>64,36; 79,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>67,34; 82,4</t>
+          <t>67,17; 81,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>69,57; 83,25</t>
+          <t>69,16; 83,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>71,73; 82,47</t>
+          <t>71,33; 82,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>64,77; 76,98</t>
+          <t>64,26; 76,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>68,2; 79,8</t>
+          <t>68,61; 79,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>70,74; 79,57</t>
+          <t>71,23; 79,96</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>67,46; 77,24</t>
+          <t>68,21; 77,26</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>70,82; 79,28</t>
+          <t>70,78; 79,7</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>66,91; 74,49</t>
+          <t>66,42; 74,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>58,54; 66,05</t>
+          <t>58,34; 65,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>62,95; 71,3</t>
+          <t>63,05; 71,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>65,79; 72,15</t>
+          <t>65,68; 72,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>62,71; 69,11</t>
+          <t>62,71; 68,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>61,56; 68,56</t>
+          <t>61,68; 68,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>67,05; 72,06</t>
+          <t>67,17; 72,13</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>62,02; 66,79</t>
+          <t>61,93; 67,03</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>63,4; 68,91</t>
+          <t>63,24; 68,71</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
